--- a/Stimuli/ExAttn_sheet.xlsx
+++ b/Stimuli/ExAttn_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewdougherty/Desktop/Projects/RetGoals_Git/Stimuli/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EEB794-737C-0B41-9E0D-02A641785AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB6CE23-60AD-BA40-A17B-10C30F68301A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="740" windowWidth="28040" windowHeight="17220" xr2:uid="{CDBACDD7-AC46-AD4E-AAED-35A69E0B8AC3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="319">
   <si>
     <t>stim_name</t>
   </si>
@@ -978,6 +978,21 @@
   </si>
   <si>
     <t>ExAttn_Stim.300.jpeg</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -1362,10 +1377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C98DEED-BA66-C248-8539-FECD0D46BA00}">
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F301"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D242" sqref="D242:D301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1373,7 +1388,7 @@
     <col min="1" max="1" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1392,8 +1407,11 @@
       <c r="F1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1403,8 +1421,8 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>316</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -1412,8 +1430,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,8 +1444,8 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
+      <c r="D3" t="s">
+        <v>316</v>
       </c>
       <c r="E3">
         <v>6</v>
@@ -1432,8 +1453,11 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1443,8 +1467,8 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>2</v>
+      <c r="D4" t="s">
+        <v>316</v>
       </c>
       <c r="E4">
         <v>6</v>
@@ -1452,8 +1476,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1463,8 +1490,8 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>316</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -1472,8 +1499,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1483,8 +1513,8 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>2</v>
+      <c r="D6" t="s">
+        <v>316</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1492,8 +1522,11 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1503,8 +1536,8 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>2</v>
+      <c r="D7" t="s">
+        <v>316</v>
       </c>
       <c r="E7">
         <v>7</v>
@@ -1512,8 +1545,11 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1523,8 +1559,8 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>2</v>
+      <c r="D8" t="s">
+        <v>316</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -1532,8 +1568,11 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1543,8 +1582,8 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
-        <v>2</v>
+      <c r="D9" t="s">
+        <v>316</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -1552,8 +1591,11 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1563,8 +1605,8 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
-        <v>2</v>
+      <c r="D10" t="s">
+        <v>316</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -1572,8 +1614,11 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
@@ -1583,8 +1628,8 @@
       <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>2</v>
+      <c r="D11" t="s">
+        <v>316</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1592,8 +1637,11 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1603,8 +1651,8 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
-        <v>2</v>
+      <c r="D12" t="s">
+        <v>316</v>
       </c>
       <c r="E12">
         <v>7</v>
@@ -1612,8 +1660,11 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -1623,8 +1674,8 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
-        <v>2</v>
+      <c r="D13" t="s">
+        <v>316</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1632,8 +1683,11 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1643,8 +1697,8 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>316</v>
       </c>
       <c r="E14">
         <v>7</v>
@@ -1652,8 +1706,11 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
@@ -1663,8 +1720,8 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="D15" t="s">
+        <v>316</v>
       </c>
       <c r="E15">
         <v>7</v>
@@ -1672,8 +1729,11 @@
       <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1683,8 +1743,8 @@
       <c r="C16" t="s">
         <v>5</v>
       </c>
-      <c r="D16">
-        <v>2</v>
+      <c r="D16" t="s">
+        <v>316</v>
       </c>
       <c r="E16">
         <v>7</v>
@@ -1692,8 +1752,11 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1703,8 +1766,8 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
-        <v>2</v>
+      <c r="D17" t="s">
+        <v>316</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1712,8 +1775,11 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -1723,8 +1789,8 @@
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18">
-        <v>2</v>
+      <c r="D18" t="s">
+        <v>316</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1732,8 +1798,11 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -1743,8 +1812,8 @@
       <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="D19">
-        <v>2</v>
+      <c r="D19" t="s">
+        <v>316</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -1752,8 +1821,11 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1763,8 +1835,8 @@
       <c r="C20" t="s">
         <v>5</v>
       </c>
-      <c r="D20">
-        <v>2</v>
+      <c r="D20" t="s">
+        <v>316</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -1772,8 +1844,11 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1783,8 +1858,8 @@
       <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21">
-        <v>2</v>
+      <c r="D21" t="s">
+        <v>316</v>
       </c>
       <c r="E21">
         <v>8</v>
@@ -1792,8 +1867,11 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -1803,8 +1881,8 @@
       <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>4</v>
+      <c r="D22" t="s">
+        <v>317</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -1812,8 +1890,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -1823,8 +1904,8 @@
       <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D23">
-        <v>4</v>
+      <c r="D23" t="s">
+        <v>317</v>
       </c>
       <c r="E23">
         <v>6</v>
@@ -1832,8 +1913,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -1843,8 +1927,8 @@
       <c r="C24" t="s">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>4</v>
+      <c r="D24" t="s">
+        <v>317</v>
       </c>
       <c r="E24">
         <v>6</v>
@@ -1852,8 +1936,11 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -1863,8 +1950,8 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
-      <c r="D25">
-        <v>4</v>
+      <c r="D25" t="s">
+        <v>317</v>
       </c>
       <c r="E25">
         <v>7</v>
@@ -1872,8 +1959,11 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -1883,8 +1973,8 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
-      <c r="D26">
-        <v>4</v>
+      <c r="D26" t="s">
+        <v>317</v>
       </c>
       <c r="E26">
         <v>7</v>
@@ -1892,8 +1982,11 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -1903,8 +1996,8 @@
       <c r="C27" t="s">
         <v>6</v>
       </c>
-      <c r="D27">
-        <v>4</v>
+      <c r="D27" t="s">
+        <v>317</v>
       </c>
       <c r="E27">
         <v>7</v>
@@ -1912,8 +2005,11 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -1923,8 +2019,8 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="D28">
-        <v>4</v>
+      <c r="D28" t="s">
+        <v>317</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -1932,8 +2028,11 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -1943,8 +2042,8 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>4</v>
+      <c r="D29" t="s">
+        <v>317</v>
       </c>
       <c r="E29">
         <v>8</v>
@@ -1952,8 +2051,11 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -1963,8 +2065,8 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
-        <v>4</v>
+      <c r="D30" t="s">
+        <v>317</v>
       </c>
       <c r="E30">
         <v>8</v>
@@ -1972,8 +2074,11 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1983,8 +2088,8 @@
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31">
-        <v>4</v>
+      <c r="D31" t="s">
+        <v>317</v>
       </c>
       <c r="E31">
         <v>8</v>
@@ -1992,8 +2097,11 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2003,8 +2111,8 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="D32">
-        <v>4</v>
+      <c r="D32" t="s">
+        <v>317</v>
       </c>
       <c r="E32">
         <v>7</v>
@@ -2012,8 +2120,11 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -2023,8 +2134,8 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
-      <c r="D33">
-        <v>4</v>
+      <c r="D33" t="s">
+        <v>317</v>
       </c>
       <c r="E33">
         <v>7</v>
@@ -2032,8 +2143,11 @@
       <c r="F33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -2043,8 +2157,8 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
-      <c r="D34">
-        <v>4</v>
+      <c r="D34" t="s">
+        <v>317</v>
       </c>
       <c r="E34">
         <v>7</v>
@@ -2052,8 +2166,11 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
@@ -2063,8 +2180,8 @@
       <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35">
-        <v>4</v>
+      <c r="D35" t="s">
+        <v>317</v>
       </c>
       <c r="E35">
         <v>7</v>
@@ -2072,8 +2189,11 @@
       <c r="F35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
@@ -2083,8 +2203,8 @@
       <c r="C36" t="s">
         <v>6</v>
       </c>
-      <c r="D36">
-        <v>4</v>
+      <c r="D36" t="s">
+        <v>317</v>
       </c>
       <c r="E36">
         <v>7</v>
@@ -2092,8 +2212,11 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
@@ -2103,8 +2226,8 @@
       <c r="C37" t="s">
         <v>6</v>
       </c>
-      <c r="D37">
-        <v>4</v>
+      <c r="D37" t="s">
+        <v>317</v>
       </c>
       <c r="E37">
         <v>8</v>
@@ -2112,8 +2235,11 @@
       <c r="F37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -2123,8 +2249,8 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="D38">
-        <v>4</v>
+      <c r="D38" t="s">
+        <v>317</v>
       </c>
       <c r="E38">
         <v>8</v>
@@ -2132,8 +2258,11 @@
       <c r="F38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
@@ -2143,8 +2272,8 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
-        <v>4</v>
+      <c r="D39" t="s">
+        <v>317</v>
       </c>
       <c r="E39">
         <v>8</v>
@@ -2152,8 +2281,11 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2163,8 +2295,8 @@
       <c r="C40" t="s">
         <v>6</v>
       </c>
-      <c r="D40">
-        <v>4</v>
+      <c r="D40" t="s">
+        <v>317</v>
       </c>
       <c r="E40">
         <v>8</v>
@@ -2172,8 +2304,11 @@
       <c r="F40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -2183,8 +2318,8 @@
       <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D41">
-        <v>4</v>
+      <c r="D41" t="s">
+        <v>317</v>
       </c>
       <c r="E41">
         <v>8</v>
@@ -2192,8 +2327,11 @@
       <c r="F41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2203,8 +2341,8 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>3</v>
+      <c r="D42" t="s">
+        <v>318</v>
       </c>
       <c r="E42">
         <v>5</v>
@@ -2212,8 +2350,11 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
@@ -2223,8 +2364,8 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="D43">
-        <v>3</v>
+      <c r="D43" t="s">
+        <v>318</v>
       </c>
       <c r="E43">
         <v>5</v>
@@ -2232,8 +2373,11 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2243,8 +2387,8 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
-      <c r="D44">
-        <v>3</v>
+      <c r="D44" t="s">
+        <v>318</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -2252,8 +2396,11 @@
       <c r="F44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
@@ -2263,8 +2410,8 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45">
-        <v>3</v>
+      <c r="D45" t="s">
+        <v>318</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2272,8 +2419,11 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
@@ -2283,8 +2433,8 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>3</v>
+      <c r="D46" t="s">
+        <v>318</v>
       </c>
       <c r="E46">
         <v>5</v>
@@ -2292,8 +2442,11 @@
       <c r="F46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
@@ -2303,8 +2456,8 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
-      <c r="D47">
-        <v>3</v>
+      <c r="D47" t="s">
+        <v>318</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -2312,8 +2465,11 @@
       <c r="F47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
@@ -2323,8 +2479,8 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
-      <c r="D48">
-        <v>3</v>
+      <c r="D48" t="s">
+        <v>318</v>
       </c>
       <c r="E48">
         <v>6</v>
@@ -2332,8 +2488,11 @@
       <c r="F48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -2343,8 +2502,8 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D49">
-        <v>3</v>
+      <c r="D49" t="s">
+        <v>318</v>
       </c>
       <c r="E49">
         <v>6</v>
@@ -2352,8 +2511,11 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2363,8 +2525,8 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
-      <c r="D50">
-        <v>3</v>
+      <c r="D50" t="s">
+        <v>318</v>
       </c>
       <c r="E50">
         <v>6</v>
@@ -2372,8 +2534,11 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,8 +2548,8 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
-      <c r="D51">
-        <v>3</v>
+      <c r="D51" t="s">
+        <v>318</v>
       </c>
       <c r="E51">
         <v>6</v>
@@ -2392,8 +2557,11 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
@@ -2403,8 +2571,8 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
-      <c r="D52">
-        <v>3</v>
+      <c r="D52" t="s">
+        <v>318</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -2412,8 +2580,11 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
@@ -2423,8 +2594,8 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
-      <c r="D53">
-        <v>3</v>
+      <c r="D53" t="s">
+        <v>318</v>
       </c>
       <c r="E53">
         <v>7</v>
@@ -2432,8 +2603,11 @@
       <c r="F53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -2443,8 +2617,8 @@
       <c r="C54" t="s">
         <v>4</v>
       </c>
-      <c r="D54">
-        <v>3</v>
+      <c r="D54" t="s">
+        <v>318</v>
       </c>
       <c r="E54">
         <v>7</v>
@@ -2452,8 +2626,11 @@
       <c r="F54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
@@ -2463,8 +2640,8 @@
       <c r="C55" t="s">
         <v>4</v>
       </c>
-      <c r="D55">
-        <v>3</v>
+      <c r="D55" t="s">
+        <v>318</v>
       </c>
       <c r="E55">
         <v>7</v>
@@ -2472,8 +2649,11 @@
       <c r="F55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
@@ -2483,8 +2663,8 @@
       <c r="C56" t="s">
         <v>4</v>
       </c>
-      <c r="D56">
-        <v>3</v>
+      <c r="D56" t="s">
+        <v>318</v>
       </c>
       <c r="E56">
         <v>7</v>
@@ -2492,8 +2672,11 @@
       <c r="F56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
@@ -2503,8 +2686,8 @@
       <c r="C57" t="s">
         <v>4</v>
       </c>
-      <c r="D57">
-        <v>3</v>
+      <c r="D57" t="s">
+        <v>318</v>
       </c>
       <c r="E57">
         <v>8</v>
@@ -2512,8 +2695,11 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
@@ -2523,8 +2709,8 @@
       <c r="C58" t="s">
         <v>4</v>
       </c>
-      <c r="D58">
-        <v>3</v>
+      <c r="D58" t="s">
+        <v>318</v>
       </c>
       <c r="E58">
         <v>8</v>
@@ -2532,8 +2718,11 @@
       <c r="F58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
@@ -2543,8 +2732,8 @@
       <c r="C59" t="s">
         <v>4</v>
       </c>
-      <c r="D59">
-        <v>3</v>
+      <c r="D59" t="s">
+        <v>318</v>
       </c>
       <c r="E59">
         <v>8</v>
@@ -2552,8 +2741,11 @@
       <c r="F59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
@@ -2563,8 +2755,8 @@
       <c r="C60" t="s">
         <v>4</v>
       </c>
-      <c r="D60">
-        <v>3</v>
+      <c r="D60" t="s">
+        <v>318</v>
       </c>
       <c r="E60">
         <v>8</v>
@@ -2572,8 +2764,11 @@
       <c r="F60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -2583,8 +2778,8 @@
       <c r="C61" t="s">
         <v>4</v>
       </c>
-      <c r="D61">
-        <v>3</v>
+      <c r="D61" t="s">
+        <v>318</v>
       </c>
       <c r="E61">
         <v>8</v>
@@ -2592,8 +2787,11 @@
       <c r="F61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
@@ -2603,8 +2801,8 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-      <c r="D62">
-        <v>2</v>
+      <c r="D62" t="s">
+        <v>316</v>
       </c>
       <c r="E62">
         <v>6</v>
@@ -2612,8 +2810,11 @@
       <c r="F62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -2623,8 +2824,8 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-      <c r="D63">
-        <v>2</v>
+      <c r="D63" t="s">
+        <v>316</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -2632,8 +2833,11 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
@@ -2643,8 +2847,8 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-      <c r="D64">
-        <v>2</v>
+      <c r="D64" t="s">
+        <v>316</v>
       </c>
       <c r="E64">
         <v>6</v>
@@ -2652,8 +2856,11 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
@@ -2663,8 +2870,8 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65">
-        <v>2</v>
+      <c r="D65" t="s">
+        <v>316</v>
       </c>
       <c r="E65">
         <v>6</v>
@@ -2672,8 +2879,11 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
@@ -2683,8 +2893,8 @@
       <c r="C66" t="s">
         <v>5</v>
       </c>
-      <c r="D66">
-        <v>2</v>
+      <c r="D66" t="s">
+        <v>316</v>
       </c>
       <c r="E66">
         <v>7</v>
@@ -2692,8 +2902,11 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -2703,8 +2916,8 @@
       <c r="C67" t="s">
         <v>5</v>
       </c>
-      <c r="D67">
-        <v>2</v>
+      <c r="D67" t="s">
+        <v>316</v>
       </c>
       <c r="E67">
         <v>7</v>
@@ -2712,8 +2925,11 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
@@ -2723,8 +2939,8 @@
       <c r="C68" t="s">
         <v>5</v>
       </c>
-      <c r="D68">
-        <v>2</v>
+      <c r="D68" t="s">
+        <v>316</v>
       </c>
       <c r="E68">
         <v>7</v>
@@ -2732,8 +2948,11 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
@@ -2743,8 +2962,8 @@
       <c r="C69" t="s">
         <v>5</v>
       </c>
-      <c r="D69">
-        <v>2</v>
+      <c r="D69" t="s">
+        <v>316</v>
       </c>
       <c r="E69">
         <v>8</v>
@@ -2752,8 +2971,11 @@
       <c r="F69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -2763,8 +2985,8 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70">
-        <v>2</v>
+      <c r="D70" t="s">
+        <v>316</v>
       </c>
       <c r="E70">
         <v>8</v>
@@ -2772,8 +2994,11 @@
       <c r="F70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
@@ -2783,8 +3008,8 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71">
-        <v>2</v>
+      <c r="D71" t="s">
+        <v>316</v>
       </c>
       <c r="E71">
         <v>8</v>
@@ -2792,8 +3017,11 @@
       <c r="F71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -2803,8 +3031,8 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
-      <c r="D72">
-        <v>2</v>
+      <c r="D72" t="s">
+        <v>316</v>
       </c>
       <c r="E72">
         <v>7</v>
@@ -2812,8 +3040,11 @@
       <c r="F72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
@@ -2823,8 +3054,8 @@
       <c r="C73" t="s">
         <v>5</v>
       </c>
-      <c r="D73">
-        <v>2</v>
+      <c r="D73" t="s">
+        <v>316</v>
       </c>
       <c r="E73">
         <v>7</v>
@@ -2832,8 +3063,11 @@
       <c r="F73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
@@ -2843,8 +3077,8 @@
       <c r="C74" t="s">
         <v>5</v>
       </c>
-      <c r="D74">
-        <v>2</v>
+      <c r="D74" t="s">
+        <v>316</v>
       </c>
       <c r="E74">
         <v>7</v>
@@ -2852,8 +3086,11 @@
       <c r="F74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
@@ -2863,8 +3100,8 @@
       <c r="C75" t="s">
         <v>5</v>
       </c>
-      <c r="D75">
-        <v>2</v>
+      <c r="D75" t="s">
+        <v>316</v>
       </c>
       <c r="E75">
         <v>7</v>
@@ -2872,8 +3109,11 @@
       <c r="F75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
@@ -2883,8 +3123,8 @@
       <c r="C76" t="s">
         <v>5</v>
       </c>
-      <c r="D76">
-        <v>2</v>
+      <c r="D76" t="s">
+        <v>316</v>
       </c>
       <c r="E76">
         <v>7</v>
@@ -2892,8 +3132,11 @@
       <c r="F76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
@@ -2903,8 +3146,8 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77">
-        <v>2</v>
+      <c r="D77" t="s">
+        <v>316</v>
       </c>
       <c r="E77">
         <v>8</v>
@@ -2912,8 +3155,11 @@
       <c r="F77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
@@ -2923,8 +3169,8 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78">
-        <v>2</v>
+      <c r="D78" t="s">
+        <v>316</v>
       </c>
       <c r="E78">
         <v>8</v>
@@ -2932,8 +3178,11 @@
       <c r="F78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
@@ -2943,8 +3192,8 @@
       <c r="C79" t="s">
         <v>5</v>
       </c>
-      <c r="D79">
-        <v>2</v>
+      <c r="D79" t="s">
+        <v>316</v>
       </c>
       <c r="E79">
         <v>8</v>
@@ -2952,8 +3201,11 @@
       <c r="F79">
         <v>2</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
@@ -2963,8 +3215,8 @@
       <c r="C80" t="s">
         <v>5</v>
       </c>
-      <c r="D80">
-        <v>2</v>
+      <c r="D80" t="s">
+        <v>316</v>
       </c>
       <c r="E80">
         <v>8</v>
@@ -2972,8 +3224,11 @@
       <c r="F80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
@@ -2983,8 +3238,8 @@
       <c r="C81" t="s">
         <v>5</v>
       </c>
-      <c r="D81">
-        <v>2</v>
+      <c r="D81" t="s">
+        <v>316</v>
       </c>
       <c r="E81">
         <v>8</v>
@@ -2992,8 +3247,11 @@
       <c r="F81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
@@ -3003,8 +3261,8 @@
       <c r="C82" t="s">
         <v>6</v>
       </c>
-      <c r="D82">
-        <v>4</v>
+      <c r="D82" t="s">
+        <v>317</v>
       </c>
       <c r="E82">
         <v>6</v>
@@ -3012,8 +3270,11 @@
       <c r="F82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
@@ -3023,8 +3284,8 @@
       <c r="C83" t="s">
         <v>6</v>
       </c>
-      <c r="D83">
-        <v>4</v>
+      <c r="D83" t="s">
+        <v>317</v>
       </c>
       <c r="E83">
         <v>6</v>
@@ -3032,8 +3293,11 @@
       <c r="F83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
@@ -3043,8 +3307,8 @@
       <c r="C84" t="s">
         <v>6</v>
       </c>
-      <c r="D84">
-        <v>4</v>
+      <c r="D84" t="s">
+        <v>317</v>
       </c>
       <c r="E84">
         <v>6</v>
@@ -3052,8 +3316,11 @@
       <c r="F84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
@@ -3063,8 +3330,8 @@
       <c r="C85" t="s">
         <v>6</v>
       </c>
-      <c r="D85">
-        <v>4</v>
+      <c r="D85" t="s">
+        <v>317</v>
       </c>
       <c r="E85">
         <v>6</v>
@@ -3072,8 +3339,11 @@
       <c r="F85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
@@ -3083,8 +3353,8 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86">
-        <v>4</v>
+      <c r="D86" t="s">
+        <v>317</v>
       </c>
       <c r="E86">
         <v>7</v>
@@ -3092,8 +3362,11 @@
       <c r="F86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
@@ -3103,8 +3376,8 @@
       <c r="C87" t="s">
         <v>6</v>
       </c>
-      <c r="D87">
-        <v>4</v>
+      <c r="D87" t="s">
+        <v>317</v>
       </c>
       <c r="E87">
         <v>7</v>
@@ -3112,8 +3385,11 @@
       <c r="F87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
@@ -3123,8 +3399,8 @@
       <c r="C88" t="s">
         <v>6</v>
       </c>
-      <c r="D88">
-        <v>4</v>
+      <c r="D88" t="s">
+        <v>317</v>
       </c>
       <c r="E88">
         <v>7</v>
@@ -3132,8 +3408,11 @@
       <c r="F88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
@@ -3143,8 +3422,8 @@
       <c r="C89" t="s">
         <v>6</v>
       </c>
-      <c r="D89">
-        <v>4</v>
+      <c r="D89" t="s">
+        <v>317</v>
       </c>
       <c r="E89">
         <v>8</v>
@@ -3152,8 +3431,11 @@
       <c r="F89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
@@ -3163,8 +3445,8 @@
       <c r="C90" t="s">
         <v>6</v>
       </c>
-      <c r="D90">
-        <v>4</v>
+      <c r="D90" t="s">
+        <v>317</v>
       </c>
       <c r="E90">
         <v>8</v>
@@ -3172,8 +3454,11 @@
       <c r="F90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
@@ -3183,8 +3468,8 @@
       <c r="C91" t="s">
         <v>6</v>
       </c>
-      <c r="D91">
-        <v>4</v>
+      <c r="D91" t="s">
+        <v>317</v>
       </c>
       <c r="E91">
         <v>8</v>
@@ -3192,8 +3477,11 @@
       <c r="F91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
@@ -3203,8 +3491,8 @@
       <c r="C92" t="s">
         <v>6</v>
       </c>
-      <c r="D92">
-        <v>4</v>
+      <c r="D92" t="s">
+        <v>317</v>
       </c>
       <c r="E92">
         <v>7</v>
@@ -3212,8 +3500,11 @@
       <c r="F92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
@@ -3223,8 +3514,8 @@
       <c r="C93" t="s">
         <v>6</v>
       </c>
-      <c r="D93">
-        <v>4</v>
+      <c r="D93" t="s">
+        <v>317</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -3232,8 +3523,11 @@
       <c r="F93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
@@ -3243,8 +3537,8 @@
       <c r="C94" t="s">
         <v>6</v>
       </c>
-      <c r="D94">
-        <v>4</v>
+      <c r="D94" t="s">
+        <v>317</v>
       </c>
       <c r="E94">
         <v>7</v>
@@ -3252,8 +3546,11 @@
       <c r="F94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
@@ -3263,8 +3560,8 @@
       <c r="C95" t="s">
         <v>6</v>
       </c>
-      <c r="D95">
-        <v>4</v>
+      <c r="D95" t="s">
+        <v>317</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -3272,8 +3569,11 @@
       <c r="F95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
@@ -3283,8 +3583,8 @@
       <c r="C96" t="s">
         <v>6</v>
       </c>
-      <c r="D96">
-        <v>4</v>
+      <c r="D96" t="s">
+        <v>317</v>
       </c>
       <c r="E96">
         <v>7</v>
@@ -3292,8 +3592,11 @@
       <c r="F96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
@@ -3303,8 +3606,8 @@
       <c r="C97" t="s">
         <v>6</v>
       </c>
-      <c r="D97">
-        <v>4</v>
+      <c r="D97" t="s">
+        <v>317</v>
       </c>
       <c r="E97">
         <v>8</v>
@@ -3312,8 +3615,11 @@
       <c r="F97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
@@ -3323,8 +3629,8 @@
       <c r="C98" t="s">
         <v>6</v>
       </c>
-      <c r="D98">
-        <v>4</v>
+      <c r="D98" t="s">
+        <v>317</v>
       </c>
       <c r="E98">
         <v>8</v>
@@ -3332,8 +3638,11 @@
       <c r="F98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
@@ -3343,8 +3652,8 @@
       <c r="C99" t="s">
         <v>6</v>
       </c>
-      <c r="D99">
-        <v>4</v>
+      <c r="D99" t="s">
+        <v>317</v>
       </c>
       <c r="E99">
         <v>8</v>
@@ -3352,8 +3661,11 @@
       <c r="F99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
@@ -3363,8 +3675,8 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100">
-        <v>4</v>
+      <c r="D100" t="s">
+        <v>317</v>
       </c>
       <c r="E100">
         <v>8</v>
@@ -3372,8 +3684,11 @@
       <c r="F100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
@@ -3383,8 +3698,8 @@
       <c r="C101" t="s">
         <v>6</v>
       </c>
-      <c r="D101">
-        <v>4</v>
+      <c r="D101" t="s">
+        <v>317</v>
       </c>
       <c r="E101">
         <v>8</v>
@@ -3392,8 +3707,11 @@
       <c r="F101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
@@ -3403,8 +3721,8 @@
       <c r="C102" t="s">
         <v>4</v>
       </c>
-      <c r="D102">
-        <v>3</v>
+      <c r="D102" t="s">
+        <v>318</v>
       </c>
       <c r="E102">
         <v>5</v>
@@ -3412,8 +3730,11 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
@@ -3423,8 +3744,8 @@
       <c r="C103" t="s">
         <v>4</v>
       </c>
-      <c r="D103">
-        <v>3</v>
+      <c r="D103" t="s">
+        <v>318</v>
       </c>
       <c r="E103">
         <v>5</v>
@@ -3432,8 +3753,11 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
@@ -3443,8 +3767,8 @@
       <c r="C104" t="s">
         <v>4</v>
       </c>
-      <c r="D104">
-        <v>3</v>
+      <c r="D104" t="s">
+        <v>318</v>
       </c>
       <c r="E104">
         <v>5</v>
@@ -3452,8 +3776,11 @@
       <c r="F104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
@@ -3463,8 +3790,8 @@
       <c r="C105" t="s">
         <v>4</v>
       </c>
-      <c r="D105">
-        <v>3</v>
+      <c r="D105" t="s">
+        <v>318</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3472,8 +3799,11 @@
       <c r="F105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
@@ -3483,8 +3813,8 @@
       <c r="C106" t="s">
         <v>4</v>
       </c>
-      <c r="D106">
-        <v>3</v>
+      <c r="D106" t="s">
+        <v>318</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -3492,8 +3822,11 @@
       <c r="F106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
@@ -3503,8 +3836,8 @@
       <c r="C107" t="s">
         <v>4</v>
       </c>
-      <c r="D107">
-        <v>3</v>
+      <c r="D107" t="s">
+        <v>318</v>
       </c>
       <c r="E107">
         <v>6</v>
@@ -3512,8 +3845,11 @@
       <c r="F107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -3523,8 +3859,8 @@
       <c r="C108" t="s">
         <v>4</v>
       </c>
-      <c r="D108">
-        <v>3</v>
+      <c r="D108" t="s">
+        <v>318</v>
       </c>
       <c r="E108">
         <v>6</v>
@@ -3532,8 +3868,11 @@
       <c r="F108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
@@ -3543,8 +3882,8 @@
       <c r="C109" t="s">
         <v>4</v>
       </c>
-      <c r="D109">
-        <v>3</v>
+      <c r="D109" t="s">
+        <v>318</v>
       </c>
       <c r="E109">
         <v>6</v>
@@ -3552,8 +3891,11 @@
       <c r="F109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
@@ -3563,8 +3905,8 @@
       <c r="C110" t="s">
         <v>4</v>
       </c>
-      <c r="D110">
-        <v>3</v>
+      <c r="D110" t="s">
+        <v>318</v>
       </c>
       <c r="E110">
         <v>6</v>
@@ -3572,8 +3914,11 @@
       <c r="F110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
@@ -3583,8 +3928,8 @@
       <c r="C111" t="s">
         <v>4</v>
       </c>
-      <c r="D111">
-        <v>3</v>
+      <c r="D111" t="s">
+        <v>318</v>
       </c>
       <c r="E111">
         <v>6</v>
@@ -3592,8 +3937,11 @@
       <c r="F111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
@@ -3603,8 +3951,8 @@
       <c r="C112" t="s">
         <v>4</v>
       </c>
-      <c r="D112">
-        <v>3</v>
+      <c r="D112" t="s">
+        <v>318</v>
       </c>
       <c r="E112">
         <v>7</v>
@@ -3612,8 +3960,11 @@
       <c r="F112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
@@ -3623,8 +3974,8 @@
       <c r="C113" t="s">
         <v>4</v>
       </c>
-      <c r="D113">
-        <v>3</v>
+      <c r="D113" t="s">
+        <v>318</v>
       </c>
       <c r="E113">
         <v>7</v>
@@ -3632,8 +3983,11 @@
       <c r="F113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
@@ -3643,8 +3997,8 @@
       <c r="C114" t="s">
         <v>4</v>
       </c>
-      <c r="D114">
-        <v>3</v>
+      <c r="D114" t="s">
+        <v>318</v>
       </c>
       <c r="E114">
         <v>7</v>
@@ -3652,8 +4006,11 @@
       <c r="F114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
@@ -3663,8 +4020,8 @@
       <c r="C115" t="s">
         <v>4</v>
       </c>
-      <c r="D115">
-        <v>3</v>
+      <c r="D115" t="s">
+        <v>318</v>
       </c>
       <c r="E115">
         <v>7</v>
@@ -3672,8 +4029,11 @@
       <c r="F115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
@@ -3683,8 +4043,8 @@
       <c r="C116" t="s">
         <v>4</v>
       </c>
-      <c r="D116">
-        <v>3</v>
+      <c r="D116" t="s">
+        <v>318</v>
       </c>
       <c r="E116">
         <v>7</v>
@@ -3692,8 +4052,11 @@
       <c r="F116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
@@ -3703,8 +4066,8 @@
       <c r="C117" t="s">
         <v>4</v>
       </c>
-      <c r="D117">
-        <v>3</v>
+      <c r="D117" t="s">
+        <v>318</v>
       </c>
       <c r="E117">
         <v>8</v>
@@ -3712,8 +4075,11 @@
       <c r="F117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
@@ -3723,8 +4089,8 @@
       <c r="C118" t="s">
         <v>4</v>
       </c>
-      <c r="D118">
-        <v>3</v>
+      <c r="D118" t="s">
+        <v>318</v>
       </c>
       <c r="E118">
         <v>8</v>
@@ -3732,8 +4098,11 @@
       <c r="F118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
@@ -3743,8 +4112,8 @@
       <c r="C119" t="s">
         <v>4</v>
       </c>
-      <c r="D119">
-        <v>3</v>
+      <c r="D119" t="s">
+        <v>318</v>
       </c>
       <c r="E119">
         <v>8</v>
@@ -3752,8 +4121,11 @@
       <c r="F119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
@@ -3763,8 +4135,8 @@
       <c r="C120" t="s">
         <v>4</v>
       </c>
-      <c r="D120">
-        <v>3</v>
+      <c r="D120" t="s">
+        <v>318</v>
       </c>
       <c r="E120">
         <v>8</v>
@@ -3772,8 +4144,11 @@
       <c r="F120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
@@ -3783,8 +4158,8 @@
       <c r="C121" t="s">
         <v>4</v>
       </c>
-      <c r="D121">
-        <v>3</v>
+      <c r="D121" t="s">
+        <v>318</v>
       </c>
       <c r="E121">
         <v>8</v>
@@ -3792,8 +4167,11 @@
       <c r="F121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
@@ -3803,8 +4181,8 @@
       <c r="C122" t="s">
         <v>5</v>
       </c>
-      <c r="D122">
-        <v>2</v>
+      <c r="D122" t="s">
+        <v>316</v>
       </c>
       <c r="E122">
         <v>6</v>
@@ -3812,8 +4190,11 @@
       <c r="F122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
@@ -3823,8 +4204,8 @@
       <c r="C123" t="s">
         <v>5</v>
       </c>
-      <c r="D123">
-        <v>2</v>
+      <c r="D123" t="s">
+        <v>316</v>
       </c>
       <c r="E123">
         <v>6</v>
@@ -3832,8 +4213,11 @@
       <c r="F123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
@@ -3843,8 +4227,8 @@
       <c r="C124" t="s">
         <v>5</v>
       </c>
-      <c r="D124">
-        <v>2</v>
+      <c r="D124" t="s">
+        <v>316</v>
       </c>
       <c r="E124">
         <v>6</v>
@@ -3852,8 +4236,11 @@
       <c r="F124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
@@ -3863,8 +4250,8 @@
       <c r="C125" t="s">
         <v>5</v>
       </c>
-      <c r="D125">
-        <v>2</v>
+      <c r="D125" t="s">
+        <v>316</v>
       </c>
       <c r="E125">
         <v>7</v>
@@ -3872,8 +4259,11 @@
       <c r="F125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
@@ -3883,8 +4273,8 @@
       <c r="C126" t="s">
         <v>5</v>
       </c>
-      <c r="D126">
-        <v>2</v>
+      <c r="D126" t="s">
+        <v>316</v>
       </c>
       <c r="E126">
         <v>7</v>
@@ -3892,8 +4282,11 @@
       <c r="F126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
@@ -3903,8 +4296,8 @@
       <c r="C127" t="s">
         <v>5</v>
       </c>
-      <c r="D127">
-        <v>2</v>
+      <c r="D127" t="s">
+        <v>316</v>
       </c>
       <c r="E127">
         <v>7</v>
@@ -3912,8 +4305,11 @@
       <c r="F127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
@@ -3923,8 +4319,8 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128">
-        <v>2</v>
+      <c r="D128" t="s">
+        <v>316</v>
       </c>
       <c r="E128">
         <v>8</v>
@@ -3932,8 +4328,11 @@
       <c r="F128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
@@ -3943,8 +4342,8 @@
       <c r="C129" t="s">
         <v>5</v>
       </c>
-      <c r="D129">
-        <v>2</v>
+      <c r="D129" t="s">
+        <v>316</v>
       </c>
       <c r="E129">
         <v>8</v>
@@ -3952,8 +4351,11 @@
       <c r="F129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
@@ -3963,8 +4365,8 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130">
-        <v>2</v>
+      <c r="D130" t="s">
+        <v>316</v>
       </c>
       <c r="E130">
         <v>8</v>
@@ -3972,8 +4374,11 @@
       <c r="F130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
@@ -3983,8 +4388,8 @@
       <c r="C131" t="s">
         <v>5</v>
       </c>
-      <c r="D131">
-        <v>2</v>
+      <c r="D131" t="s">
+        <v>316</v>
       </c>
       <c r="E131">
         <v>8</v>
@@ -3992,8 +4397,11 @@
       <c r="F131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
@@ -4003,8 +4411,8 @@
       <c r="C132" t="s">
         <v>5</v>
       </c>
-      <c r="D132">
-        <v>2</v>
+      <c r="D132" t="s">
+        <v>316</v>
       </c>
       <c r="E132">
         <v>7</v>
@@ -4012,8 +4420,11 @@
       <c r="F132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
@@ -4023,8 +4434,8 @@
       <c r="C133" t="s">
         <v>5</v>
       </c>
-      <c r="D133">
-        <v>2</v>
+      <c r="D133" t="s">
+        <v>316</v>
       </c>
       <c r="E133">
         <v>7</v>
@@ -4032,8 +4443,11 @@
       <c r="F133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G133" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
@@ -4043,8 +4457,8 @@
       <c r="C134" t="s">
         <v>5</v>
       </c>
-      <c r="D134">
-        <v>2</v>
+      <c r="D134" t="s">
+        <v>316</v>
       </c>
       <c r="E134">
         <v>7</v>
@@ -4052,8 +4466,11 @@
       <c r="F134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
@@ -4063,8 +4480,8 @@
       <c r="C135" t="s">
         <v>5</v>
       </c>
-      <c r="D135">
-        <v>2</v>
+      <c r="D135" t="s">
+        <v>316</v>
       </c>
       <c r="E135">
         <v>7</v>
@@ -4072,8 +4489,11 @@
       <c r="F135">
         <v>2</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
@@ -4083,8 +4503,8 @@
       <c r="C136" t="s">
         <v>5</v>
       </c>
-      <c r="D136">
-        <v>2</v>
+      <c r="D136" t="s">
+        <v>316</v>
       </c>
       <c r="E136">
         <v>7</v>
@@ -4092,8 +4512,11 @@
       <c r="F136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
@@ -4103,8 +4526,8 @@
       <c r="C137" t="s">
         <v>5</v>
       </c>
-      <c r="D137">
-        <v>2</v>
+      <c r="D137" t="s">
+        <v>316</v>
       </c>
       <c r="E137">
         <v>8</v>
@@ -4112,8 +4535,11 @@
       <c r="F137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
@@ -4123,8 +4549,8 @@
       <c r="C138" t="s">
         <v>5</v>
       </c>
-      <c r="D138">
-        <v>2</v>
+      <c r="D138" t="s">
+        <v>316</v>
       </c>
       <c r="E138">
         <v>8</v>
@@ -4132,8 +4558,11 @@
       <c r="F138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
@@ -4143,8 +4572,8 @@
       <c r="C139" t="s">
         <v>5</v>
       </c>
-      <c r="D139">
-        <v>2</v>
+      <c r="D139" t="s">
+        <v>316</v>
       </c>
       <c r="E139">
         <v>8</v>
@@ -4152,8 +4581,11 @@
       <c r="F139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
@@ -4163,8 +4595,8 @@
       <c r="C140" t="s">
         <v>5</v>
       </c>
-      <c r="D140">
-        <v>2</v>
+      <c r="D140" t="s">
+        <v>316</v>
       </c>
       <c r="E140">
         <v>8</v>
@@ -4172,8 +4604,11 @@
       <c r="F140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
@@ -4183,8 +4618,8 @@
       <c r="C141" t="s">
         <v>5</v>
       </c>
-      <c r="D141">
-        <v>2</v>
+      <c r="D141" t="s">
+        <v>316</v>
       </c>
       <c r="E141">
         <v>8</v>
@@ -4192,8 +4627,11 @@
       <c r="F141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
@@ -4203,8 +4641,8 @@
       <c r="C142" t="s">
         <v>6</v>
       </c>
-      <c r="D142">
-        <v>4</v>
+      <c r="D142" t="s">
+        <v>317</v>
       </c>
       <c r="E142">
         <v>6</v>
@@ -4212,8 +4650,11 @@
       <c r="F142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
@@ -4223,8 +4664,8 @@
       <c r="C143" t="s">
         <v>6</v>
       </c>
-      <c r="D143">
-        <v>4</v>
+      <c r="D143" t="s">
+        <v>317</v>
       </c>
       <c r="E143">
         <v>6</v>
@@ -4232,8 +4673,11 @@
       <c r="F143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
@@ -4243,8 +4687,8 @@
       <c r="C144" t="s">
         <v>6</v>
       </c>
-      <c r="D144">
-        <v>4</v>
+      <c r="D144" t="s">
+        <v>317</v>
       </c>
       <c r="E144">
         <v>6</v>
@@ -4252,8 +4696,11 @@
       <c r="F144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
@@ -4263,8 +4710,8 @@
       <c r="C145" t="s">
         <v>6</v>
       </c>
-      <c r="D145">
-        <v>4</v>
+      <c r="D145" t="s">
+        <v>317</v>
       </c>
       <c r="E145">
         <v>7</v>
@@ -4272,8 +4719,11 @@
       <c r="F145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G145" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
@@ -4283,8 +4733,8 @@
       <c r="C146" t="s">
         <v>6</v>
       </c>
-      <c r="D146">
-        <v>4</v>
+      <c r="D146" t="s">
+        <v>317</v>
       </c>
       <c r="E146">
         <v>7</v>
@@ -4292,8 +4742,11 @@
       <c r="F146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
@@ -4303,8 +4756,8 @@
       <c r="C147" t="s">
         <v>6</v>
       </c>
-      <c r="D147">
-        <v>4</v>
+      <c r="D147" t="s">
+        <v>317</v>
       </c>
       <c r="E147">
         <v>7</v>
@@ -4312,8 +4765,11 @@
       <c r="F147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
@@ -4323,8 +4779,8 @@
       <c r="C148" t="s">
         <v>6</v>
       </c>
-      <c r="D148">
-        <v>4</v>
+      <c r="D148" t="s">
+        <v>317</v>
       </c>
       <c r="E148">
         <v>8</v>
@@ -4332,8 +4788,11 @@
       <c r="F148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G148" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
@@ -4343,8 +4802,8 @@
       <c r="C149" t="s">
         <v>6</v>
       </c>
-      <c r="D149">
-        <v>4</v>
+      <c r="D149" t="s">
+        <v>317</v>
       </c>
       <c r="E149">
         <v>8</v>
@@ -4352,8 +4811,11 @@
       <c r="F149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
@@ -4363,8 +4825,8 @@
       <c r="C150" t="s">
         <v>6</v>
       </c>
-      <c r="D150">
-        <v>4</v>
+      <c r="D150" t="s">
+        <v>317</v>
       </c>
       <c r="E150">
         <v>8</v>
@@ -4372,8 +4834,11 @@
       <c r="F150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
@@ -4383,8 +4848,8 @@
       <c r="C151" t="s">
         <v>6</v>
       </c>
-      <c r="D151">
-        <v>4</v>
+      <c r="D151" t="s">
+        <v>317</v>
       </c>
       <c r="E151">
         <v>8</v>
@@ -4392,8 +4857,11 @@
       <c r="F151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
@@ -4403,8 +4871,8 @@
       <c r="C152" t="s">
         <v>6</v>
       </c>
-      <c r="D152">
-        <v>4</v>
+      <c r="D152" t="s">
+        <v>317</v>
       </c>
       <c r="E152">
         <v>7</v>
@@ -4412,8 +4880,11 @@
       <c r="F152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
@@ -4423,8 +4894,8 @@
       <c r="C153" t="s">
         <v>6</v>
       </c>
-      <c r="D153">
-        <v>4</v>
+      <c r="D153" t="s">
+        <v>317</v>
       </c>
       <c r="E153">
         <v>7</v>
@@ -4432,8 +4903,11 @@
       <c r="F153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G153" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
@@ -4443,8 +4917,8 @@
       <c r="C154" t="s">
         <v>6</v>
       </c>
-      <c r="D154">
-        <v>4</v>
+      <c r="D154" t="s">
+        <v>317</v>
       </c>
       <c r="E154">
         <v>7</v>
@@ -4452,8 +4926,11 @@
       <c r="F154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G154" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
@@ -4463,8 +4940,8 @@
       <c r="C155" t="s">
         <v>6</v>
       </c>
-      <c r="D155">
-        <v>4</v>
+      <c r="D155" t="s">
+        <v>317</v>
       </c>
       <c r="E155">
         <v>7</v>
@@ -4472,8 +4949,11 @@
       <c r="F155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G155" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
@@ -4483,8 +4963,8 @@
       <c r="C156" t="s">
         <v>6</v>
       </c>
-      <c r="D156">
-        <v>4</v>
+      <c r="D156" t="s">
+        <v>317</v>
       </c>
       <c r="E156">
         <v>7</v>
@@ -4492,8 +4972,11 @@
       <c r="F156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G156" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
@@ -4503,8 +4986,8 @@
       <c r="C157" t="s">
         <v>6</v>
       </c>
-      <c r="D157">
-        <v>4</v>
+      <c r="D157" t="s">
+        <v>317</v>
       </c>
       <c r="E157">
         <v>8</v>
@@ -4512,8 +4995,11 @@
       <c r="F157">
         <v>2</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
@@ -4523,8 +5009,8 @@
       <c r="C158" t="s">
         <v>6</v>
       </c>
-      <c r="D158">
-        <v>4</v>
+      <c r="D158" t="s">
+        <v>317</v>
       </c>
       <c r="E158">
         <v>8</v>
@@ -4532,8 +5018,11 @@
       <c r="F158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
@@ -4543,8 +5032,8 @@
       <c r="C159" t="s">
         <v>6</v>
       </c>
-      <c r="D159">
-        <v>4</v>
+      <c r="D159" t="s">
+        <v>317</v>
       </c>
       <c r="E159">
         <v>8</v>
@@ -4552,8 +5041,11 @@
       <c r="F159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G159" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
@@ -4563,8 +5055,8 @@
       <c r="C160" t="s">
         <v>6</v>
       </c>
-      <c r="D160">
-        <v>4</v>
+      <c r="D160" t="s">
+        <v>317</v>
       </c>
       <c r="E160">
         <v>8</v>
@@ -4572,8 +5064,11 @@
       <c r="F160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G160" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
@@ -4583,8 +5078,8 @@
       <c r="C161" t="s">
         <v>6</v>
       </c>
-      <c r="D161">
-        <v>4</v>
+      <c r="D161" t="s">
+        <v>317</v>
       </c>
       <c r="E161">
         <v>8</v>
@@ -4592,8 +5087,11 @@
       <c r="F161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G161" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
@@ -4603,8 +5101,8 @@
       <c r="C162" t="s">
         <v>4</v>
       </c>
-      <c r="D162">
-        <v>3</v>
+      <c r="D162" t="s">
+        <v>318</v>
       </c>
       <c r="E162">
         <v>5</v>
@@ -4612,8 +5110,11 @@
       <c r="F162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G162" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
@@ -4623,8 +5124,8 @@
       <c r="C163" t="s">
         <v>4</v>
       </c>
-      <c r="D163">
-        <v>3</v>
+      <c r="D163" t="s">
+        <v>318</v>
       </c>
       <c r="E163">
         <v>5</v>
@@ -4632,8 +5133,11 @@
       <c r="F163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G163" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
@@ -4643,8 +5147,8 @@
       <c r="C164" t="s">
         <v>4</v>
       </c>
-      <c r="D164">
-        <v>3</v>
+      <c r="D164" t="s">
+        <v>318</v>
       </c>
       <c r="E164">
         <v>5</v>
@@ -4652,8 +5156,11 @@
       <c r="F164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G164" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
@@ -4663,8 +5170,8 @@
       <c r="C165" t="s">
         <v>4</v>
       </c>
-      <c r="D165">
-        <v>3</v>
+      <c r="D165" t="s">
+        <v>318</v>
       </c>
       <c r="E165">
         <v>5</v>
@@ -4672,8 +5179,11 @@
       <c r="F165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G165" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
@@ -4683,8 +5193,8 @@
       <c r="C166" t="s">
         <v>4</v>
       </c>
-      <c r="D166">
-        <v>3</v>
+      <c r="D166" t="s">
+        <v>318</v>
       </c>
       <c r="E166">
         <v>5</v>
@@ -4692,8 +5202,11 @@
       <c r="F166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G166" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
@@ -4703,8 +5216,8 @@
       <c r="C167" t="s">
         <v>4</v>
       </c>
-      <c r="D167">
-        <v>3</v>
+      <c r="D167" t="s">
+        <v>318</v>
       </c>
       <c r="E167">
         <v>6</v>
@@ -4712,8 +5225,11 @@
       <c r="F167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G167" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
@@ -4723,8 +5239,8 @@
       <c r="C168" t="s">
         <v>4</v>
       </c>
-      <c r="D168">
-        <v>3</v>
+      <c r="D168" t="s">
+        <v>318</v>
       </c>
       <c r="E168">
         <v>6</v>
@@ -4732,8 +5248,11 @@
       <c r="F168">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G168" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
@@ -4743,8 +5262,8 @@
       <c r="C169" t="s">
         <v>4</v>
       </c>
-      <c r="D169">
-        <v>3</v>
+      <c r="D169" t="s">
+        <v>318</v>
       </c>
       <c r="E169">
         <v>6</v>
@@ -4752,8 +5271,11 @@
       <c r="F169">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G169" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
@@ -4763,8 +5285,8 @@
       <c r="C170" t="s">
         <v>4</v>
       </c>
-      <c r="D170">
-        <v>3</v>
+      <c r="D170" t="s">
+        <v>318</v>
       </c>
       <c r="E170">
         <v>6</v>
@@ -4772,8 +5294,11 @@
       <c r="F170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G170" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
@@ -4783,8 +5308,8 @@
       <c r="C171" t="s">
         <v>4</v>
       </c>
-      <c r="D171">
-        <v>3</v>
+      <c r="D171" t="s">
+        <v>318</v>
       </c>
       <c r="E171">
         <v>6</v>
@@ -4792,8 +5317,11 @@
       <c r="F171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G171" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
@@ -4803,8 +5331,8 @@
       <c r="C172" t="s">
         <v>4</v>
       </c>
-      <c r="D172">
-        <v>3</v>
+      <c r="D172" t="s">
+        <v>318</v>
       </c>
       <c r="E172">
         <v>7</v>
@@ -4812,8 +5340,11 @@
       <c r="F172">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G172" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
@@ -4823,8 +5354,8 @@
       <c r="C173" t="s">
         <v>4</v>
       </c>
-      <c r="D173">
-        <v>3</v>
+      <c r="D173" t="s">
+        <v>318</v>
       </c>
       <c r="E173">
         <v>7</v>
@@ -4832,8 +5363,11 @@
       <c r="F173">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G173" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
@@ -4843,8 +5377,8 @@
       <c r="C174" t="s">
         <v>4</v>
       </c>
-      <c r="D174">
-        <v>3</v>
+      <c r="D174" t="s">
+        <v>318</v>
       </c>
       <c r="E174">
         <v>7</v>
@@ -4852,8 +5386,11 @@
       <c r="F174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G174" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
@@ -4863,8 +5400,8 @@
       <c r="C175" t="s">
         <v>4</v>
       </c>
-      <c r="D175">
-        <v>3</v>
+      <c r="D175" t="s">
+        <v>318</v>
       </c>
       <c r="E175">
         <v>7</v>
@@ -4872,8 +5409,11 @@
       <c r="F175">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G175" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
@@ -4883,8 +5423,8 @@
       <c r="C176" t="s">
         <v>4</v>
       </c>
-      <c r="D176">
-        <v>3</v>
+      <c r="D176" t="s">
+        <v>318</v>
       </c>
       <c r="E176">
         <v>7</v>
@@ -4892,8 +5432,11 @@
       <c r="F176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
@@ -4903,8 +5446,8 @@
       <c r="C177" t="s">
         <v>4</v>
       </c>
-      <c r="D177">
-        <v>3</v>
+      <c r="D177" t="s">
+        <v>318</v>
       </c>
       <c r="E177">
         <v>8</v>
@@ -4912,8 +5455,11 @@
       <c r="F177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G177" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
@@ -4923,8 +5469,8 @@
       <c r="C178" t="s">
         <v>4</v>
       </c>
-      <c r="D178">
-        <v>3</v>
+      <c r="D178" t="s">
+        <v>318</v>
       </c>
       <c r="E178">
         <v>8</v>
@@ -4932,8 +5478,11 @@
       <c r="F178">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G178" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
@@ -4943,8 +5492,8 @@
       <c r="C179" t="s">
         <v>4</v>
       </c>
-      <c r="D179">
-        <v>3</v>
+      <c r="D179" t="s">
+        <v>318</v>
       </c>
       <c r="E179">
         <v>8</v>
@@ -4952,8 +5501,11 @@
       <c r="F179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G179" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
@@ -4963,8 +5515,8 @@
       <c r="C180" t="s">
         <v>4</v>
       </c>
-      <c r="D180">
-        <v>3</v>
+      <c r="D180" t="s">
+        <v>318</v>
       </c>
       <c r="E180">
         <v>8</v>
@@ -4972,8 +5524,11 @@
       <c r="F180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G180" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
@@ -4983,8 +5538,8 @@
       <c r="C181" t="s">
         <v>4</v>
       </c>
-      <c r="D181">
-        <v>3</v>
+      <c r="D181" t="s">
+        <v>318</v>
       </c>
       <c r="E181">
         <v>8</v>
@@ -4992,8 +5547,11 @@
       <c r="F181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
@@ -5003,8 +5561,8 @@
       <c r="C182" t="s">
         <v>5</v>
       </c>
-      <c r="D182">
-        <v>2</v>
+      <c r="D182" t="s">
+        <v>316</v>
       </c>
       <c r="E182">
         <v>6</v>
@@ -5012,8 +5570,11 @@
       <c r="F182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G182" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>195</v>
       </c>
@@ -5023,8 +5584,8 @@
       <c r="C183" t="s">
         <v>5</v>
       </c>
-      <c r="D183">
-        <v>2</v>
+      <c r="D183" t="s">
+        <v>316</v>
       </c>
       <c r="E183">
         <v>6</v>
@@ -5032,8 +5593,11 @@
       <c r="F183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G183" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>196</v>
       </c>
@@ -5043,8 +5607,8 @@
       <c r="C184" t="s">
         <v>5</v>
       </c>
-      <c r="D184">
-        <v>2</v>
+      <c r="D184" t="s">
+        <v>316</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -5052,8 +5616,11 @@
       <c r="F184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G184" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>197</v>
       </c>
@@ -5063,8 +5630,8 @@
       <c r="C185" t="s">
         <v>5</v>
       </c>
-      <c r="D185">
-        <v>2</v>
+      <c r="D185" t="s">
+        <v>316</v>
       </c>
       <c r="E185">
         <v>6</v>
@@ -5072,8 +5639,11 @@
       <c r="F185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G185" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>198</v>
       </c>
@@ -5083,8 +5653,8 @@
       <c r="C186" t="s">
         <v>5</v>
       </c>
-      <c r="D186">
-        <v>2</v>
+      <c r="D186" t="s">
+        <v>316</v>
       </c>
       <c r="E186">
         <v>7</v>
@@ -5092,8 +5662,11 @@
       <c r="F186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G186" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>199</v>
       </c>
@@ -5103,8 +5676,8 @@
       <c r="C187" t="s">
         <v>5</v>
       </c>
-      <c r="D187">
-        <v>2</v>
+      <c r="D187" t="s">
+        <v>316</v>
       </c>
       <c r="E187">
         <v>7</v>
@@ -5112,8 +5685,11 @@
       <c r="F187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G187" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>200</v>
       </c>
@@ -5123,8 +5699,8 @@
       <c r="C188" t="s">
         <v>5</v>
       </c>
-      <c r="D188">
-        <v>2</v>
+      <c r="D188" t="s">
+        <v>316</v>
       </c>
       <c r="E188">
         <v>7</v>
@@ -5132,8 +5708,11 @@
       <c r="F188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G188" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>201</v>
       </c>
@@ -5143,8 +5722,8 @@
       <c r="C189" t="s">
         <v>5</v>
       </c>
-      <c r="D189">
-        <v>2</v>
+      <c r="D189" t="s">
+        <v>316</v>
       </c>
       <c r="E189">
         <v>8</v>
@@ -5152,8 +5731,11 @@
       <c r="F189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G189" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>202</v>
       </c>
@@ -5163,8 +5745,8 @@
       <c r="C190" t="s">
         <v>5</v>
       </c>
-      <c r="D190">
-        <v>2</v>
+      <c r="D190" t="s">
+        <v>316</v>
       </c>
       <c r="E190">
         <v>8</v>
@@ -5172,8 +5754,11 @@
       <c r="F190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G190" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>203</v>
       </c>
@@ -5183,8 +5768,8 @@
       <c r="C191" t="s">
         <v>5</v>
       </c>
-      <c r="D191">
-        <v>2</v>
+      <c r="D191" t="s">
+        <v>316</v>
       </c>
       <c r="E191">
         <v>8</v>
@@ -5192,8 +5777,11 @@
       <c r="F191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G191" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>204</v>
       </c>
@@ -5203,8 +5791,8 @@
       <c r="C192" t="s">
         <v>5</v>
       </c>
-      <c r="D192">
-        <v>2</v>
+      <c r="D192" t="s">
+        <v>316</v>
       </c>
       <c r="E192">
         <v>7</v>
@@ -5212,8 +5800,11 @@
       <c r="F192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G192" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>205</v>
       </c>
@@ -5223,8 +5814,8 @@
       <c r="C193" t="s">
         <v>5</v>
       </c>
-      <c r="D193">
-        <v>2</v>
+      <c r="D193" t="s">
+        <v>316</v>
       </c>
       <c r="E193">
         <v>7</v>
@@ -5232,8 +5823,11 @@
       <c r="F193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G193" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>206</v>
       </c>
@@ -5243,8 +5837,8 @@
       <c r="C194" t="s">
         <v>5</v>
       </c>
-      <c r="D194">
-        <v>2</v>
+      <c r="D194" t="s">
+        <v>316</v>
       </c>
       <c r="E194">
         <v>7</v>
@@ -5252,8 +5846,11 @@
       <c r="F194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G194" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>207</v>
       </c>
@@ -5263,8 +5860,8 @@
       <c r="C195" t="s">
         <v>5</v>
       </c>
-      <c r="D195">
-        <v>2</v>
+      <c r="D195" t="s">
+        <v>316</v>
       </c>
       <c r="E195">
         <v>7</v>
@@ -5272,8 +5869,11 @@
       <c r="F195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G195" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>208</v>
       </c>
@@ -5283,8 +5883,8 @@
       <c r="C196" t="s">
         <v>5</v>
       </c>
-      <c r="D196">
-        <v>2</v>
+      <c r="D196" t="s">
+        <v>316</v>
       </c>
       <c r="E196">
         <v>7</v>
@@ -5292,8 +5892,11 @@
       <c r="F196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G196" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>209</v>
       </c>
@@ -5303,8 +5906,8 @@
       <c r="C197" t="s">
         <v>5</v>
       </c>
-      <c r="D197">
-        <v>2</v>
+      <c r="D197" t="s">
+        <v>316</v>
       </c>
       <c r="E197">
         <v>8</v>
@@ -5312,8 +5915,11 @@
       <c r="F197">
         <v>2</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G197" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>210</v>
       </c>
@@ -5323,8 +5929,8 @@
       <c r="C198" t="s">
         <v>5</v>
       </c>
-      <c r="D198">
-        <v>2</v>
+      <c r="D198" t="s">
+        <v>316</v>
       </c>
       <c r="E198">
         <v>8</v>
@@ -5332,8 +5938,11 @@
       <c r="F198">
         <v>2</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G198" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>211</v>
       </c>
@@ -5343,8 +5952,8 @@
       <c r="C199" t="s">
         <v>5</v>
       </c>
-      <c r="D199">
-        <v>2</v>
+      <c r="D199" t="s">
+        <v>316</v>
       </c>
       <c r="E199">
         <v>8</v>
@@ -5352,8 +5961,11 @@
       <c r="F199">
         <v>2</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G199" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>212</v>
       </c>
@@ -5363,8 +5975,8 @@
       <c r="C200" t="s">
         <v>5</v>
       </c>
-      <c r="D200">
-        <v>2</v>
+      <c r="D200" t="s">
+        <v>316</v>
       </c>
       <c r="E200">
         <v>8</v>
@@ -5372,8 +5984,11 @@
       <c r="F200">
         <v>2</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G200" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>213</v>
       </c>
@@ -5383,8 +5998,8 @@
       <c r="C201" t="s">
         <v>5</v>
       </c>
-      <c r="D201">
-        <v>2</v>
+      <c r="D201" t="s">
+        <v>316</v>
       </c>
       <c r="E201">
         <v>8</v>
@@ -5392,8 +6007,11 @@
       <c r="F201">
         <v>2</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G201" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>214</v>
       </c>
@@ -5403,8 +6021,8 @@
       <c r="C202" t="s">
         <v>6</v>
       </c>
-      <c r="D202">
-        <v>4</v>
+      <c r="D202" t="s">
+        <v>317</v>
       </c>
       <c r="E202">
         <v>6</v>
@@ -5412,8 +6030,11 @@
       <c r="F202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G202" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>215</v>
       </c>
@@ -5423,8 +6044,8 @@
       <c r="C203" t="s">
         <v>6</v>
       </c>
-      <c r="D203">
-        <v>4</v>
+      <c r="D203" t="s">
+        <v>317</v>
       </c>
       <c r="E203">
         <v>6</v>
@@ -5432,8 +6053,11 @@
       <c r="F203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G203" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>216</v>
       </c>
@@ -5443,8 +6067,8 @@
       <c r="C204" t="s">
         <v>6</v>
       </c>
-      <c r="D204">
-        <v>4</v>
+      <c r="D204" t="s">
+        <v>317</v>
       </c>
       <c r="E204">
         <v>6</v>
@@ -5452,8 +6076,11 @@
       <c r="F204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G204" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>217</v>
       </c>
@@ -5463,8 +6090,8 @@
       <c r="C205" t="s">
         <v>6</v>
       </c>
-      <c r="D205">
-        <v>4</v>
+      <c r="D205" t="s">
+        <v>317</v>
       </c>
       <c r="E205">
         <v>6</v>
@@ -5472,8 +6099,11 @@
       <c r="F205">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G205" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>218</v>
       </c>
@@ -5483,8 +6113,8 @@
       <c r="C206" t="s">
         <v>6</v>
       </c>
-      <c r="D206">
-        <v>4</v>
+      <c r="D206" t="s">
+        <v>317</v>
       </c>
       <c r="E206">
         <v>7</v>
@@ -5492,8 +6122,11 @@
       <c r="F206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G206" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>219</v>
       </c>
@@ -5503,8 +6136,8 @@
       <c r="C207" t="s">
         <v>6</v>
       </c>
-      <c r="D207">
-        <v>4</v>
+      <c r="D207" t="s">
+        <v>317</v>
       </c>
       <c r="E207">
         <v>7</v>
@@ -5512,8 +6145,11 @@
       <c r="F207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G207" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>220</v>
       </c>
@@ -5523,8 +6159,8 @@
       <c r="C208" t="s">
         <v>6</v>
       </c>
-      <c r="D208">
-        <v>4</v>
+      <c r="D208" t="s">
+        <v>317</v>
       </c>
       <c r="E208">
         <v>7</v>
@@ -5532,8 +6168,11 @@
       <c r="F208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G208" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>221</v>
       </c>
@@ -5543,8 +6182,8 @@
       <c r="C209" t="s">
         <v>6</v>
       </c>
-      <c r="D209">
-        <v>4</v>
+      <c r="D209" t="s">
+        <v>317</v>
       </c>
       <c r="E209">
         <v>8</v>
@@ -5552,8 +6191,11 @@
       <c r="F209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G209" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>222</v>
       </c>
@@ -5563,8 +6205,8 @@
       <c r="C210" t="s">
         <v>6</v>
       </c>
-      <c r="D210">
-        <v>4</v>
+      <c r="D210" t="s">
+        <v>317</v>
       </c>
       <c r="E210">
         <v>8</v>
@@ -5572,8 +6214,11 @@
       <c r="F210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G210" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>223</v>
       </c>
@@ -5583,8 +6228,8 @@
       <c r="C211" t="s">
         <v>6</v>
       </c>
-      <c r="D211">
-        <v>4</v>
+      <c r="D211" t="s">
+        <v>317</v>
       </c>
       <c r="E211">
         <v>8</v>
@@ -5592,8 +6237,11 @@
       <c r="F211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G211" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>224</v>
       </c>
@@ -5603,8 +6251,8 @@
       <c r="C212" t="s">
         <v>6</v>
       </c>
-      <c r="D212">
-        <v>4</v>
+      <c r="D212" t="s">
+        <v>317</v>
       </c>
       <c r="E212">
         <v>7</v>
@@ -5612,8 +6260,11 @@
       <c r="F212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G212" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>225</v>
       </c>
@@ -5623,8 +6274,8 @@
       <c r="C213" t="s">
         <v>6</v>
       </c>
-      <c r="D213">
-        <v>4</v>
+      <c r="D213" t="s">
+        <v>317</v>
       </c>
       <c r="E213">
         <v>7</v>
@@ -5632,8 +6283,11 @@
       <c r="F213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G213" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>226</v>
       </c>
@@ -5643,8 +6297,8 @@
       <c r="C214" t="s">
         <v>6</v>
       </c>
-      <c r="D214">
-        <v>4</v>
+      <c r="D214" t="s">
+        <v>317</v>
       </c>
       <c r="E214">
         <v>7</v>
@@ -5652,8 +6306,11 @@
       <c r="F214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G214" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>227</v>
       </c>
@@ -5663,8 +6320,8 @@
       <c r="C215" t="s">
         <v>6</v>
       </c>
-      <c r="D215">
-        <v>4</v>
+      <c r="D215" t="s">
+        <v>317</v>
       </c>
       <c r="E215">
         <v>7</v>
@@ -5672,8 +6329,11 @@
       <c r="F215">
         <v>2</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G215" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>228</v>
       </c>
@@ -5683,8 +6343,8 @@
       <c r="C216" t="s">
         <v>6</v>
       </c>
-      <c r="D216">
-        <v>4</v>
+      <c r="D216" t="s">
+        <v>317</v>
       </c>
       <c r="E216">
         <v>7</v>
@@ -5692,8 +6352,11 @@
       <c r="F216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G216" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>229</v>
       </c>
@@ -5703,8 +6366,8 @@
       <c r="C217" t="s">
         <v>6</v>
       </c>
-      <c r="D217">
-        <v>4</v>
+      <c r="D217" t="s">
+        <v>317</v>
       </c>
       <c r="E217">
         <v>8</v>
@@ -5712,8 +6375,11 @@
       <c r="F217">
         <v>2</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G217" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>230</v>
       </c>
@@ -5723,8 +6389,8 @@
       <c r="C218" t="s">
         <v>6</v>
       </c>
-      <c r="D218">
-        <v>4</v>
+      <c r="D218" t="s">
+        <v>317</v>
       </c>
       <c r="E218">
         <v>8</v>
@@ -5732,8 +6398,11 @@
       <c r="F218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G218" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>231</v>
       </c>
@@ -5743,8 +6412,8 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219">
-        <v>4</v>
+      <c r="D219" t="s">
+        <v>317</v>
       </c>
       <c r="E219">
         <v>8</v>
@@ -5752,8 +6421,11 @@
       <c r="F219">
         <v>2</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G219" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>232</v>
       </c>
@@ -5763,8 +6435,8 @@
       <c r="C220" t="s">
         <v>6</v>
       </c>
-      <c r="D220">
-        <v>4</v>
+      <c r="D220" t="s">
+        <v>317</v>
       </c>
       <c r="E220">
         <v>8</v>
@@ -5772,8 +6444,11 @@
       <c r="F220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G220" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>233</v>
       </c>
@@ -5783,8 +6458,8 @@
       <c r="C221" t="s">
         <v>6</v>
       </c>
-      <c r="D221">
-        <v>4</v>
+      <c r="D221" t="s">
+        <v>317</v>
       </c>
       <c r="E221">
         <v>8</v>
@@ -5792,8 +6467,11 @@
       <c r="F221">
         <v>2</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G221" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>234</v>
       </c>
@@ -5803,8 +6481,8 @@
       <c r="C222" t="s">
         <v>4</v>
       </c>
-      <c r="D222">
-        <v>3</v>
+      <c r="D222" t="s">
+        <v>318</v>
       </c>
       <c r="E222">
         <v>5</v>
@@ -5812,8 +6490,11 @@
       <c r="F222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G222" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>235</v>
       </c>
@@ -5823,8 +6504,8 @@
       <c r="C223" t="s">
         <v>4</v>
       </c>
-      <c r="D223">
-        <v>3</v>
+      <c r="D223" t="s">
+        <v>318</v>
       </c>
       <c r="E223">
         <v>5</v>
@@ -5832,8 +6513,11 @@
       <c r="F223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G223" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>236</v>
       </c>
@@ -5843,8 +6527,8 @@
       <c r="C224" t="s">
         <v>4</v>
       </c>
-      <c r="D224">
-        <v>3</v>
+      <c r="D224" t="s">
+        <v>318</v>
       </c>
       <c r="E224">
         <v>5</v>
@@ -5852,8 +6536,11 @@
       <c r="F224">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G224" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>237</v>
       </c>
@@ -5863,8 +6550,8 @@
       <c r="C225" t="s">
         <v>4</v>
       </c>
-      <c r="D225">
-        <v>3</v>
+      <c r="D225" t="s">
+        <v>318</v>
       </c>
       <c r="E225">
         <v>5</v>
@@ -5872,8 +6559,11 @@
       <c r="F225">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G225" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>238</v>
       </c>
@@ -5883,8 +6573,8 @@
       <c r="C226" t="s">
         <v>4</v>
       </c>
-      <c r="D226">
-        <v>3</v>
+      <c r="D226" t="s">
+        <v>318</v>
       </c>
       <c r="E226">
         <v>5</v>
@@ -5892,8 +6582,11 @@
       <c r="F226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G226" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>239</v>
       </c>
@@ -5903,8 +6596,8 @@
       <c r="C227" t="s">
         <v>4</v>
       </c>
-      <c r="D227">
-        <v>3</v>
+      <c r="D227" t="s">
+        <v>318</v>
       </c>
       <c r="E227">
         <v>6</v>
@@ -5912,8 +6605,11 @@
       <c r="F227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G227" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>240</v>
       </c>
@@ -5923,8 +6619,8 @@
       <c r="C228" t="s">
         <v>4</v>
       </c>
-      <c r="D228">
-        <v>3</v>
+      <c r="D228" t="s">
+        <v>318</v>
       </c>
       <c r="E228">
         <v>6</v>
@@ -5932,8 +6628,11 @@
       <c r="F228">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G228" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>241</v>
       </c>
@@ -5943,8 +6642,8 @@
       <c r="C229" t="s">
         <v>4</v>
       </c>
-      <c r="D229">
-        <v>3</v>
+      <c r="D229" t="s">
+        <v>318</v>
       </c>
       <c r="E229">
         <v>6</v>
@@ -5952,8 +6651,11 @@
       <c r="F229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G229" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>242</v>
       </c>
@@ -5963,8 +6665,8 @@
       <c r="C230" t="s">
         <v>4</v>
       </c>
-      <c r="D230">
-        <v>3</v>
+      <c r="D230" t="s">
+        <v>318</v>
       </c>
       <c r="E230">
         <v>6</v>
@@ -5972,8 +6674,11 @@
       <c r="F230">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G230" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>243</v>
       </c>
@@ -5983,8 +6688,8 @@
       <c r="C231" t="s">
         <v>4</v>
       </c>
-      <c r="D231">
-        <v>3</v>
+      <c r="D231" t="s">
+        <v>318</v>
       </c>
       <c r="E231">
         <v>6</v>
@@ -5992,8 +6697,11 @@
       <c r="F231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G231" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>244</v>
       </c>
@@ -6003,8 +6711,8 @@
       <c r="C232" t="s">
         <v>4</v>
       </c>
-      <c r="D232">
-        <v>3</v>
+      <c r="D232" t="s">
+        <v>318</v>
       </c>
       <c r="E232">
         <v>7</v>
@@ -6012,8 +6720,11 @@
       <c r="F232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G232" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>245</v>
       </c>
@@ -6023,8 +6734,8 @@
       <c r="C233" t="s">
         <v>4</v>
       </c>
-      <c r="D233">
-        <v>3</v>
+      <c r="D233" t="s">
+        <v>318</v>
       </c>
       <c r="E233">
         <v>7</v>
@@ -6032,8 +6743,11 @@
       <c r="F233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G233" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>246</v>
       </c>
@@ -6043,8 +6757,8 @@
       <c r="C234" t="s">
         <v>4</v>
       </c>
-      <c r="D234">
-        <v>3</v>
+      <c r="D234" t="s">
+        <v>318</v>
       </c>
       <c r="E234">
         <v>7</v>
@@ -6052,8 +6766,11 @@
       <c r="F234">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G234" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>247</v>
       </c>
@@ -6063,8 +6780,8 @@
       <c r="C235" t="s">
         <v>4</v>
       </c>
-      <c r="D235">
-        <v>3</v>
+      <c r="D235" t="s">
+        <v>318</v>
       </c>
       <c r="E235">
         <v>7</v>
@@ -6072,8 +6789,11 @@
       <c r="F235">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G235" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>248</v>
       </c>
@@ -6083,8 +6803,8 @@
       <c r="C236" t="s">
         <v>4</v>
       </c>
-      <c r="D236">
-        <v>3</v>
+      <c r="D236" t="s">
+        <v>318</v>
       </c>
       <c r="E236">
         <v>7</v>
@@ -6092,8 +6812,11 @@
       <c r="F236">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G236" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>249</v>
       </c>
@@ -6103,8 +6826,8 @@
       <c r="C237" t="s">
         <v>4</v>
       </c>
-      <c r="D237">
-        <v>3</v>
+      <c r="D237" t="s">
+        <v>318</v>
       </c>
       <c r="E237">
         <v>8</v>
@@ -6112,8 +6835,11 @@
       <c r="F237">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G237" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>250</v>
       </c>
@@ -6123,8 +6849,8 @@
       <c r="C238" t="s">
         <v>4</v>
       </c>
-      <c r="D238">
-        <v>3</v>
+      <c r="D238" t="s">
+        <v>318</v>
       </c>
       <c r="E238">
         <v>8</v>
@@ -6132,8 +6858,11 @@
       <c r="F238">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G238" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>251</v>
       </c>
@@ -6143,8 +6872,8 @@
       <c r="C239" t="s">
         <v>4</v>
       </c>
-      <c r="D239">
-        <v>3</v>
+      <c r="D239" t="s">
+        <v>318</v>
       </c>
       <c r="E239">
         <v>8</v>
@@ -6152,8 +6881,11 @@
       <c r="F239">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G239" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>252</v>
       </c>
@@ -6163,8 +6895,8 @@
       <c r="C240" t="s">
         <v>4</v>
       </c>
-      <c r="D240">
-        <v>3</v>
+      <c r="D240" t="s">
+        <v>318</v>
       </c>
       <c r="E240">
         <v>8</v>
@@ -6172,8 +6904,11 @@
       <c r="F240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G240" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>253</v>
       </c>
@@ -6183,8 +6918,8 @@
       <c r="C241" t="s">
         <v>4</v>
       </c>
-      <c r="D241">
-        <v>3</v>
+      <c r="D241" t="s">
+        <v>318</v>
       </c>
       <c r="E241">
         <v>8</v>
@@ -6192,8 +6927,11 @@
       <c r="F241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G241" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>254</v>
       </c>
@@ -6203,8 +6941,8 @@
       <c r="C242" t="s">
         <v>5</v>
       </c>
-      <c r="D242">
-        <v>2</v>
+      <c r="D242" t="s">
+        <v>316</v>
       </c>
       <c r="E242">
         <v>6</v>
@@ -6212,8 +6950,11 @@
       <c r="F242">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G242" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>255</v>
       </c>
@@ -6223,8 +6964,8 @@
       <c r="C243" t="s">
         <v>5</v>
       </c>
-      <c r="D243">
-        <v>2</v>
+      <c r="D243" t="s">
+        <v>316</v>
       </c>
       <c r="E243">
         <v>6</v>
@@ -6232,8 +6973,11 @@
       <c r="F243">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G243" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>256</v>
       </c>
@@ -6243,8 +6987,8 @@
       <c r="C244" t="s">
         <v>5</v>
       </c>
-      <c r="D244">
-        <v>2</v>
+      <c r="D244" t="s">
+        <v>316</v>
       </c>
       <c r="E244">
         <v>6</v>
@@ -6252,8 +6996,11 @@
       <c r="F244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G244" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>257</v>
       </c>
@@ -6263,8 +7010,8 @@
       <c r="C245" t="s">
         <v>5</v>
       </c>
-      <c r="D245">
-        <v>2</v>
+      <c r="D245" t="s">
+        <v>316</v>
       </c>
       <c r="E245">
         <v>7</v>
@@ -6272,8 +7019,11 @@
       <c r="F245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G245" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>258</v>
       </c>
@@ -6283,8 +7033,8 @@
       <c r="C246" t="s">
         <v>5</v>
       </c>
-      <c r="D246">
-        <v>2</v>
+      <c r="D246" t="s">
+        <v>316</v>
       </c>
       <c r="E246">
         <v>7</v>
@@ -6292,8 +7042,11 @@
       <c r="F246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G246" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>259</v>
       </c>
@@ -6303,8 +7056,8 @@
       <c r="C247" t="s">
         <v>5</v>
       </c>
-      <c r="D247">
-        <v>2</v>
+      <c r="D247" t="s">
+        <v>316</v>
       </c>
       <c r="E247">
         <v>7</v>
@@ -6312,8 +7065,11 @@
       <c r="F247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G247" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>260</v>
       </c>
@@ -6323,8 +7079,8 @@
       <c r="C248" t="s">
         <v>5</v>
       </c>
-      <c r="D248">
-        <v>2</v>
+      <c r="D248" t="s">
+        <v>316</v>
       </c>
       <c r="E248">
         <v>8</v>
@@ -6332,8 +7088,11 @@
       <c r="F248">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G248" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>261</v>
       </c>
@@ -6343,8 +7102,8 @@
       <c r="C249" t="s">
         <v>5</v>
       </c>
-      <c r="D249">
-        <v>2</v>
+      <c r="D249" t="s">
+        <v>316</v>
       </c>
       <c r="E249">
         <v>8</v>
@@ -6352,8 +7111,11 @@
       <c r="F249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G249" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>262</v>
       </c>
@@ -6363,8 +7125,8 @@
       <c r="C250" t="s">
         <v>5</v>
       </c>
-      <c r="D250">
-        <v>2</v>
+      <c r="D250" t="s">
+        <v>316</v>
       </c>
       <c r="E250">
         <v>8</v>
@@ -6372,8 +7134,11 @@
       <c r="F250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G250" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>263</v>
       </c>
@@ -6383,8 +7148,8 @@
       <c r="C251" t="s">
         <v>5</v>
       </c>
-      <c r="D251">
-        <v>2</v>
+      <c r="D251" t="s">
+        <v>316</v>
       </c>
       <c r="E251">
         <v>8</v>
@@ -6392,8 +7157,11 @@
       <c r="F251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G251" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>264</v>
       </c>
@@ -6403,8 +7171,8 @@
       <c r="C252" t="s">
         <v>5</v>
       </c>
-      <c r="D252">
-        <v>2</v>
+      <c r="D252" t="s">
+        <v>316</v>
       </c>
       <c r="E252">
         <v>7</v>
@@ -6412,8 +7180,11 @@
       <c r="F252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G252" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>265</v>
       </c>
@@ -6423,8 +7194,8 @@
       <c r="C253" t="s">
         <v>5</v>
       </c>
-      <c r="D253">
-        <v>2</v>
+      <c r="D253" t="s">
+        <v>316</v>
       </c>
       <c r="E253">
         <v>7</v>
@@ -6432,8 +7203,11 @@
       <c r="F253">
         <v>2</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G253" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>266</v>
       </c>
@@ -6443,8 +7217,8 @@
       <c r="C254" t="s">
         <v>5</v>
       </c>
-      <c r="D254">
-        <v>2</v>
+      <c r="D254" t="s">
+        <v>316</v>
       </c>
       <c r="E254">
         <v>7</v>
@@ -6452,8 +7226,11 @@
       <c r="F254">
         <v>2</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G254" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>267</v>
       </c>
@@ -6463,8 +7240,8 @@
       <c r="C255" t="s">
         <v>5</v>
       </c>
-      <c r="D255">
-        <v>2</v>
+      <c r="D255" t="s">
+        <v>316</v>
       </c>
       <c r="E255">
         <v>7</v>
@@ -6472,8 +7249,11 @@
       <c r="F255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G255" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>268</v>
       </c>
@@ -6483,8 +7263,8 @@
       <c r="C256" t="s">
         <v>5</v>
       </c>
-      <c r="D256">
-        <v>2</v>
+      <c r="D256" t="s">
+        <v>316</v>
       </c>
       <c r="E256">
         <v>7</v>
@@ -6492,8 +7272,11 @@
       <c r="F256">
         <v>2</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G256" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>269</v>
       </c>
@@ -6503,8 +7286,8 @@
       <c r="C257" t="s">
         <v>5</v>
       </c>
-      <c r="D257">
-        <v>2</v>
+      <c r="D257" t="s">
+        <v>316</v>
       </c>
       <c r="E257">
         <v>8</v>
@@ -6512,8 +7295,11 @@
       <c r="F257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G257" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>270</v>
       </c>
@@ -6523,8 +7309,8 @@
       <c r="C258" t="s">
         <v>5</v>
       </c>
-      <c r="D258">
-        <v>2</v>
+      <c r="D258" t="s">
+        <v>316</v>
       </c>
       <c r="E258">
         <v>8</v>
@@ -6532,8 +7318,11 @@
       <c r="F258">
         <v>2</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G258" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>271</v>
       </c>
@@ -6543,8 +7332,8 @@
       <c r="C259" t="s">
         <v>5</v>
       </c>
-      <c r="D259">
-        <v>2</v>
+      <c r="D259" t="s">
+        <v>316</v>
       </c>
       <c r="E259">
         <v>8</v>
@@ -6552,8 +7341,11 @@
       <c r="F259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G259" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>272</v>
       </c>
@@ -6563,8 +7355,8 @@
       <c r="C260" t="s">
         <v>5</v>
       </c>
-      <c r="D260">
-        <v>2</v>
+      <c r="D260" t="s">
+        <v>316</v>
       </c>
       <c r="E260">
         <v>8</v>
@@ -6572,8 +7364,11 @@
       <c r="F260">
         <v>2</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G260" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>273</v>
       </c>
@@ -6583,8 +7378,8 @@
       <c r="C261" t="s">
         <v>5</v>
       </c>
-      <c r="D261">
-        <v>2</v>
+      <c r="D261" t="s">
+        <v>316</v>
       </c>
       <c r="E261">
         <v>8</v>
@@ -6592,8 +7387,11 @@
       <c r="F261">
         <v>2</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G261" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>274</v>
       </c>
@@ -6603,8 +7401,8 @@
       <c r="C262" t="s">
         <v>6</v>
       </c>
-      <c r="D262">
-        <v>4</v>
+      <c r="D262" t="s">
+        <v>317</v>
       </c>
       <c r="E262">
         <v>6</v>
@@ -6612,8 +7410,11 @@
       <c r="F262">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G262" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>275</v>
       </c>
@@ -6623,8 +7424,8 @@
       <c r="C263" t="s">
         <v>6</v>
       </c>
-      <c r="D263">
-        <v>4</v>
+      <c r="D263" t="s">
+        <v>317</v>
       </c>
       <c r="E263">
         <v>6</v>
@@ -6632,8 +7433,11 @@
       <c r="F263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G263" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>276</v>
       </c>
@@ -6643,8 +7447,8 @@
       <c r="C264" t="s">
         <v>6</v>
       </c>
-      <c r="D264">
-        <v>4</v>
+      <c r="D264" t="s">
+        <v>317</v>
       </c>
       <c r="E264">
         <v>6</v>
@@ -6652,8 +7456,11 @@
       <c r="F264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G264" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>277</v>
       </c>
@@ -6663,8 +7470,8 @@
       <c r="C265" t="s">
         <v>6</v>
       </c>
-      <c r="D265">
-        <v>4</v>
+      <c r="D265" t="s">
+        <v>317</v>
       </c>
       <c r="E265">
         <v>7</v>
@@ -6672,8 +7479,11 @@
       <c r="F265">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G265" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>278</v>
       </c>
@@ -6683,8 +7493,8 @@
       <c r="C266" t="s">
         <v>6</v>
       </c>
-      <c r="D266">
-        <v>4</v>
+      <c r="D266" t="s">
+        <v>317</v>
       </c>
       <c r="E266">
         <v>7</v>
@@ -6692,8 +7502,11 @@
       <c r="F266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G266" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>279</v>
       </c>
@@ -6703,8 +7516,8 @@
       <c r="C267" t="s">
         <v>6</v>
       </c>
-      <c r="D267">
-        <v>4</v>
+      <c r="D267" t="s">
+        <v>317</v>
       </c>
       <c r="E267">
         <v>7</v>
@@ -6712,8 +7525,11 @@
       <c r="F267">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G267" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>280</v>
       </c>
@@ -6723,8 +7539,8 @@
       <c r="C268" t="s">
         <v>6</v>
       </c>
-      <c r="D268">
-        <v>4</v>
+      <c r="D268" t="s">
+        <v>317</v>
       </c>
       <c r="E268">
         <v>8</v>
@@ -6732,8 +7548,11 @@
       <c r="F268">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G268" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>281</v>
       </c>
@@ -6743,8 +7562,8 @@
       <c r="C269" t="s">
         <v>6</v>
       </c>
-      <c r="D269">
-        <v>4</v>
+      <c r="D269" t="s">
+        <v>317</v>
       </c>
       <c r="E269">
         <v>8</v>
@@ -6752,8 +7571,11 @@
       <c r="F269">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G269" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>282</v>
       </c>
@@ -6763,8 +7585,8 @@
       <c r="C270" t="s">
         <v>6</v>
       </c>
-      <c r="D270">
-        <v>4</v>
+      <c r="D270" t="s">
+        <v>317</v>
       </c>
       <c r="E270">
         <v>8</v>
@@ -6772,8 +7594,11 @@
       <c r="F270">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G270" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>283</v>
       </c>
@@ -6783,8 +7608,8 @@
       <c r="C271" t="s">
         <v>6</v>
       </c>
-      <c r="D271">
-        <v>4</v>
+      <c r="D271" t="s">
+        <v>317</v>
       </c>
       <c r="E271">
         <v>8</v>
@@ -6792,8 +7617,11 @@
       <c r="F271">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G271" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>284</v>
       </c>
@@ -6803,8 +7631,8 @@
       <c r="C272" t="s">
         <v>6</v>
       </c>
-      <c r="D272">
-        <v>4</v>
+      <c r="D272" t="s">
+        <v>317</v>
       </c>
       <c r="E272">
         <v>7</v>
@@ -6812,8 +7640,11 @@
       <c r="F272">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G272" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>285</v>
       </c>
@@ -6823,8 +7654,8 @@
       <c r="C273" t="s">
         <v>6</v>
       </c>
-      <c r="D273">
-        <v>4</v>
+      <c r="D273" t="s">
+        <v>317</v>
       </c>
       <c r="E273">
         <v>7</v>
@@ -6832,8 +7663,11 @@
       <c r="F273">
         <v>2</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G273" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>286</v>
       </c>
@@ -6843,8 +7677,8 @@
       <c r="C274" t="s">
         <v>6</v>
       </c>
-      <c r="D274">
-        <v>4</v>
+      <c r="D274" t="s">
+        <v>317</v>
       </c>
       <c r="E274">
         <v>7</v>
@@ -6852,8 +7686,11 @@
       <c r="F274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G274" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>287</v>
       </c>
@@ -6863,8 +7700,8 @@
       <c r="C275" t="s">
         <v>6</v>
       </c>
-      <c r="D275">
-        <v>4</v>
+      <c r="D275" t="s">
+        <v>317</v>
       </c>
       <c r="E275">
         <v>7</v>
@@ -6872,8 +7709,11 @@
       <c r="F275">
         <v>2</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G275" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>288</v>
       </c>
@@ -6883,8 +7723,8 @@
       <c r="C276" t="s">
         <v>6</v>
       </c>
-      <c r="D276">
-        <v>4</v>
+      <c r="D276" t="s">
+        <v>317</v>
       </c>
       <c r="E276">
         <v>7</v>
@@ -6892,8 +7732,11 @@
       <c r="F276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G276" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>289</v>
       </c>
@@ -6903,8 +7746,8 @@
       <c r="C277" t="s">
         <v>6</v>
       </c>
-      <c r="D277">
-        <v>4</v>
+      <c r="D277" t="s">
+        <v>317</v>
       </c>
       <c r="E277">
         <v>8</v>
@@ -6912,8 +7755,11 @@
       <c r="F277">
         <v>2</v>
       </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G277" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>290</v>
       </c>
@@ -6923,8 +7769,8 @@
       <c r="C278" t="s">
         <v>6</v>
       </c>
-      <c r="D278">
-        <v>4</v>
+      <c r="D278" t="s">
+        <v>317</v>
       </c>
       <c r="E278">
         <v>8</v>
@@ -6932,8 +7778,11 @@
       <c r="F278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G278" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>291</v>
       </c>
@@ -6943,8 +7792,8 @@
       <c r="C279" t="s">
         <v>6</v>
       </c>
-      <c r="D279">
-        <v>4</v>
+      <c r="D279" t="s">
+        <v>317</v>
       </c>
       <c r="E279">
         <v>8</v>
@@ -6952,8 +7801,11 @@
       <c r="F279">
         <v>2</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G279" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>292</v>
       </c>
@@ -6963,8 +7815,8 @@
       <c r="C280" t="s">
         <v>6</v>
       </c>
-      <c r="D280">
-        <v>4</v>
+      <c r="D280" t="s">
+        <v>317</v>
       </c>
       <c r="E280">
         <v>8</v>
@@ -6972,8 +7824,11 @@
       <c r="F280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G280" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>293</v>
       </c>
@@ -6983,8 +7838,8 @@
       <c r="C281" t="s">
         <v>6</v>
       </c>
-      <c r="D281">
-        <v>4</v>
+      <c r="D281" t="s">
+        <v>317</v>
       </c>
       <c r="E281">
         <v>8</v>
@@ -6992,8 +7847,11 @@
       <c r="F281">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G281" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>294</v>
       </c>
@@ -7003,8 +7861,8 @@
       <c r="C282" t="s">
         <v>4</v>
       </c>
-      <c r="D282">
-        <v>3</v>
+      <c r="D282" t="s">
+        <v>318</v>
       </c>
       <c r="E282">
         <v>5</v>
@@ -7012,8 +7870,11 @@
       <c r="F282">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G282" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>295</v>
       </c>
@@ -7023,8 +7884,8 @@
       <c r="C283" t="s">
         <v>4</v>
       </c>
-      <c r="D283">
-        <v>3</v>
+      <c r="D283" t="s">
+        <v>318</v>
       </c>
       <c r="E283">
         <v>5</v>
@@ -7032,8 +7893,11 @@
       <c r="F283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G283" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>296</v>
       </c>
@@ -7043,8 +7907,8 @@
       <c r="C284" t="s">
         <v>4</v>
       </c>
-      <c r="D284">
-        <v>3</v>
+      <c r="D284" t="s">
+        <v>318</v>
       </c>
       <c r="E284">
         <v>5</v>
@@ -7052,8 +7916,11 @@
       <c r="F284">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G284" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>297</v>
       </c>
@@ -7063,8 +7930,8 @@
       <c r="C285" t="s">
         <v>4</v>
       </c>
-      <c r="D285">
-        <v>3</v>
+      <c r="D285" t="s">
+        <v>318</v>
       </c>
       <c r="E285">
         <v>5</v>
@@ -7072,8 +7939,11 @@
       <c r="F285">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G285" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>298</v>
       </c>
@@ -7083,8 +7953,8 @@
       <c r="C286" t="s">
         <v>4</v>
       </c>
-      <c r="D286">
-        <v>3</v>
+      <c r="D286" t="s">
+        <v>318</v>
       </c>
       <c r="E286">
         <v>5</v>
@@ -7092,8 +7962,11 @@
       <c r="F286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G286" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>299</v>
       </c>
@@ -7103,8 +7976,8 @@
       <c r="C287" t="s">
         <v>4</v>
       </c>
-      <c r="D287">
-        <v>3</v>
+      <c r="D287" t="s">
+        <v>318</v>
       </c>
       <c r="E287">
         <v>6</v>
@@ -7112,8 +7985,11 @@
       <c r="F287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G287" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>300</v>
       </c>
@@ -7123,8 +7999,8 @@
       <c r="C288" t="s">
         <v>4</v>
       </c>
-      <c r="D288">
-        <v>3</v>
+      <c r="D288" t="s">
+        <v>318</v>
       </c>
       <c r="E288">
         <v>6</v>
@@ -7132,8 +8008,11 @@
       <c r="F288">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G288" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>301</v>
       </c>
@@ -7143,8 +8022,8 @@
       <c r="C289" t="s">
         <v>4</v>
       </c>
-      <c r="D289">
-        <v>3</v>
+      <c r="D289" t="s">
+        <v>318</v>
       </c>
       <c r="E289">
         <v>6</v>
@@ -7152,8 +8031,11 @@
       <c r="F289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G289" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>302</v>
       </c>
@@ -7163,8 +8045,8 @@
       <c r="C290" t="s">
         <v>4</v>
       </c>
-      <c r="D290">
-        <v>3</v>
+      <c r="D290" t="s">
+        <v>318</v>
       </c>
       <c r="E290">
         <v>6</v>
@@ -7172,8 +8054,11 @@
       <c r="F290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G290" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>303</v>
       </c>
@@ -7183,8 +8068,8 @@
       <c r="C291" t="s">
         <v>4</v>
       </c>
-      <c r="D291">
-        <v>3</v>
+      <c r="D291" t="s">
+        <v>318</v>
       </c>
       <c r="E291">
         <v>6</v>
@@ -7192,8 +8077,11 @@
       <c r="F291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G291" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>304</v>
       </c>
@@ -7203,8 +8091,8 @@
       <c r="C292" t="s">
         <v>4</v>
       </c>
-      <c r="D292">
-        <v>3</v>
+      <c r="D292" t="s">
+        <v>318</v>
       </c>
       <c r="E292">
         <v>7</v>
@@ -7212,8 +8100,11 @@
       <c r="F292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G292" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>305</v>
       </c>
@@ -7223,8 +8114,8 @@
       <c r="C293" t="s">
         <v>4</v>
       </c>
-      <c r="D293">
-        <v>3</v>
+      <c r="D293" t="s">
+        <v>318</v>
       </c>
       <c r="E293">
         <v>7</v>
@@ -7232,8 +8123,11 @@
       <c r="F293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G293" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>306</v>
       </c>
@@ -7243,8 +8137,8 @@
       <c r="C294" t="s">
         <v>4</v>
       </c>
-      <c r="D294">
-        <v>3</v>
+      <c r="D294" t="s">
+        <v>318</v>
       </c>
       <c r="E294">
         <v>7</v>
@@ -7252,8 +8146,11 @@
       <c r="F294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G294" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>307</v>
       </c>
@@ -7263,8 +8160,8 @@
       <c r="C295" t="s">
         <v>4</v>
       </c>
-      <c r="D295">
-        <v>3</v>
+      <c r="D295" t="s">
+        <v>318</v>
       </c>
       <c r="E295">
         <v>7</v>
@@ -7272,8 +8169,11 @@
       <c r="F295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G295" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>308</v>
       </c>
@@ -7283,8 +8183,8 @@
       <c r="C296" t="s">
         <v>4</v>
       </c>
-      <c r="D296">
-        <v>3</v>
+      <c r="D296" t="s">
+        <v>318</v>
       </c>
       <c r="E296">
         <v>7</v>
@@ -7292,8 +8192,11 @@
       <c r="F296">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G296" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>309</v>
       </c>
@@ -7303,8 +8206,8 @@
       <c r="C297" t="s">
         <v>4</v>
       </c>
-      <c r="D297">
-        <v>3</v>
+      <c r="D297" t="s">
+        <v>318</v>
       </c>
       <c r="E297">
         <v>8</v>
@@ -7312,8 +8215,11 @@
       <c r="F297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G297" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>310</v>
       </c>
@@ -7323,8 +8229,8 @@
       <c r="C298" t="s">
         <v>4</v>
       </c>
-      <c r="D298">
-        <v>3</v>
+      <c r="D298" t="s">
+        <v>318</v>
       </c>
       <c r="E298">
         <v>8</v>
@@ -7332,8 +8238,11 @@
       <c r="F298">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G298" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>311</v>
       </c>
@@ -7343,8 +8252,8 @@
       <c r="C299" t="s">
         <v>4</v>
       </c>
-      <c r="D299">
-        <v>3</v>
+      <c r="D299" t="s">
+        <v>318</v>
       </c>
       <c r="E299">
         <v>8</v>
@@ -7352,8 +8261,11 @@
       <c r="F299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G299" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>312</v>
       </c>
@@ -7363,8 +8275,8 @@
       <c r="C300" t="s">
         <v>4</v>
       </c>
-      <c r="D300">
-        <v>3</v>
+      <c r="D300" t="s">
+        <v>318</v>
       </c>
       <c r="E300">
         <v>8</v>
@@ -7372,8 +8284,11 @@
       <c r="F300">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G300" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>313</v>
       </c>
@@ -7383,14 +8298,17 @@
       <c r="C301" t="s">
         <v>4</v>
       </c>
-      <c r="D301">
-        <v>3</v>
+      <c r="D301" t="s">
+        <v>318</v>
       </c>
       <c r="E301">
         <v>8</v>
       </c>
       <c r="F301">
         <v>0</v>
+      </c>
+      <c r="G301" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
